--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>长城港股通价值精选多策略混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -772,15 +872,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.66</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005255</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>长城港股通价值精选多策略混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>005255</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>90.31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.02</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.369999999999999</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.56</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2782,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.49</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3181,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.02</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.369999999999999</v>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3257,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.56</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3295,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.58</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.49</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.02</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3683,14 +3770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.369999999999999</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3699,14 +3808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.56</v>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3715,13 +3846,293 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.93</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.85</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>7.58</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.49</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>11.02</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>8.369999999999999</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.56</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -993,7 +1180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1979,7 +2166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2757,7 +2944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3345,7 +3532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3781,7 +3968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00881-中升控股.xlsx
+++ b/数据整理/stocks/港股/00881-中升控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5.85</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>7.58</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.49</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>11.02</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>8.369999999999999</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>5.56</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -616,7 +633,687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1180,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2166,7 +2863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,7 +3641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3532,7 +4229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3966,364 +4663,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8437</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7112</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2106</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0538</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519696</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>